--- a/weatherdata/Distributed Systems Weather Data.xlsx
+++ b/weatherdata/Distributed Systems Weather Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hendrik Löffel\Desktop\lastfuckingproject\DS-Project\weatherdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A427A0FC-C323-4A97-8752-9F7D3A6141CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D367896-C6AC-41D9-AE06-7670F915733F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3848" yWindow="2205" windowWidth="12705" windowHeight="10523" xr2:uid="{91531FC8-D632-47A1-B45A-1519045877F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{91531FC8-D632-47A1-B45A-1519045877F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -18344,10 +18344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAED80C-0550-4D9E-877B-2FAD82B82E70}">
-  <dimension ref="A1:NB24"/>
+  <dimension ref="A1:NB32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31197,7 +31197,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:366" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>625</v>
       </c>
@@ -31206,34 +31206,1509 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:366" x14ac:dyDescent="0.45">
       <c r="B18">
         <f>MIN(B5:NB5)</f>
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:366" x14ac:dyDescent="0.45">
       <c r="B20">
         <f>MIN(B11:NB11)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:366" x14ac:dyDescent="0.45">
       <c r="B21">
         <f>MAX(B12:NB12)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:366" x14ac:dyDescent="0.45">
       <c r="B23">
         <f>MIN(B8:NB8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:366" x14ac:dyDescent="0.45">
       <c r="B24">
         <f>MAX(B9:NB9)</f>
         <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:366" x14ac:dyDescent="0.45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
+        <f xml:space="preserve"> (B6-B5) / 8</f>
+        <v>1.8875000000000002</v>
+      </c>
+      <c r="C26" s="6">
+        <f xml:space="preserve"> (C6-C5) / 8</f>
+        <v>2.4624999999999999</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:BO26" si="0" xml:space="preserve"> (D6-D5) / 8</f>
+        <v>1.875</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5375000000000001</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4375000000000004</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28750000000000009</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0625</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4124999999999996</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1875</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8125</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6874999999999996</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7375000000000003</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7624999999999997</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82499999999999973</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0625</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2624999999999997</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2375000000000003</v>
+      </c>
+      <c r="AE26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9124999999999996</v>
+      </c>
+      <c r="AF26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AH26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AI26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0874999999999995</v>
+      </c>
+      <c r="AJ26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6875</v>
+      </c>
+      <c r="AK26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AL26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8374999999999995</v>
+      </c>
+      <c r="AM26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="AN26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1874999999999996</v>
+      </c>
+      <c r="AO26" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AP26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.925</v>
+      </c>
+      <c r="AQ26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="AR26" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3625000000000003</v>
+      </c>
+      <c r="AS26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AT26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82500000000000018</v>
+      </c>
+      <c r="AU26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0875000000000004</v>
+      </c>
+      <c r="AV26" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6875000000000004</v>
+      </c>
+      <c r="AX26" s="6">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="AY26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7250000000000005</v>
+      </c>
+      <c r="AZ26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.92499999999999982</v>
+      </c>
+      <c r="BA26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="BB26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0125000000000002</v>
+      </c>
+      <c r="BC26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1375000000000002</v>
+      </c>
+      <c r="BD26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="BE26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+      <c r="BF26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BG26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0125000000000002</v>
+      </c>
+      <c r="BH26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="BI26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8374999999999999</v>
+      </c>
+      <c r="BJ26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="BK26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="BL26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4124999999999996</v>
+      </c>
+      <c r="BM26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6124999999999998</v>
+      </c>
+      <c r="BN26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="BO26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32499999999999973</v>
+      </c>
+      <c r="BP26" s="6">
+        <f t="shared" ref="BP26:EA26" si="1" xml:space="preserve"> (BP6-BP5) / 8</f>
+        <v>2.1249999999999996</v>
+      </c>
+      <c r="BQ26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="BR26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6375000000000002</v>
+      </c>
+      <c r="BS26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7750000000000004</v>
+      </c>
+      <c r="BT26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0875000000000004</v>
+      </c>
+      <c r="BU26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BV26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5125000000000002</v>
+      </c>
+      <c r="BW26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91250000000000009</v>
+      </c>
+      <c r="BX26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.73749999999999982</v>
+      </c>
+      <c r="BY26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.67499999999999982</v>
+      </c>
+      <c r="BZ26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+      <c r="CA26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0250000000000004</v>
+      </c>
+      <c r="CB26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4874999999999998</v>
+      </c>
+      <c r="CC26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="CD26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="CE26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.125</v>
+      </c>
+      <c r="CF26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2125000000000004</v>
+      </c>
+      <c r="CG26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="CH26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1375000000000002</v>
+      </c>
+      <c r="CI26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6625000000000001</v>
+      </c>
+      <c r="CJ26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8875000000000002</v>
+      </c>
+      <c r="CK26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="CL26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1624999999999996</v>
+      </c>
+      <c r="CM26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6124999999999998</v>
+      </c>
+      <c r="CN26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0125000000000002</v>
+      </c>
+      <c r="CO26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2125000000000001</v>
+      </c>
+      <c r="CP26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.85</v>
+      </c>
+      <c r="CQ26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="CR26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98749999999999982</v>
+      </c>
+      <c r="CS26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8750000000000002</v>
+      </c>
+      <c r="CT26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3749999999999996</v>
+      </c>
+      <c r="CU26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5875000000000004</v>
+      </c>
+      <c r="CV26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3125000000000004</v>
+      </c>
+      <c r="CW26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0875000000000001</v>
+      </c>
+      <c r="CX26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9250000000000003</v>
+      </c>
+      <c r="CY26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7375</v>
+      </c>
+      <c r="CZ26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9875000000000003</v>
+      </c>
+      <c r="DA26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="DB26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8125</v>
+      </c>
+      <c r="DC26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7375</v>
+      </c>
+      <c r="DD26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="DE26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="DF26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5125</v>
+      </c>
+      <c r="DG26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7874999999999999</v>
+      </c>
+      <c r="DH26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="DI26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6375</v>
+      </c>
+      <c r="DJ26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="DK26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="DL26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2750000000000004</v>
+      </c>
+      <c r="DM26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.625</v>
+      </c>
+      <c r="DO26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5625</v>
+      </c>
+      <c r="DP26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="DQ26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8124999999999998</v>
+      </c>
+      <c r="DR26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5125</v>
+      </c>
+      <c r="DS26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2875000000000001</v>
+      </c>
+      <c r="DT26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.375</v>
+      </c>
+      <c r="DU26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="DV26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="DW26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2875000000000001</v>
+      </c>
+      <c r="DX26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3374999999999999</v>
+      </c>
+      <c r="DY26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="DZ26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3875000000000002</v>
+      </c>
+      <c r="EA26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0749999999999997</v>
+      </c>
+      <c r="EB26" s="6">
+        <f t="shared" ref="EB26:GM26" si="2" xml:space="preserve"> (EB6-EB5) / 8</f>
+        <v>1.5374999999999999</v>
+      </c>
+      <c r="EC26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="ED26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="EE26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="EF26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="EG26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="EH26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="EI26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="EJ26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="EK26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2875000000000001</v>
+      </c>
+      <c r="EL26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="EM26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5250000000000004</v>
+      </c>
+      <c r="EN26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.85</v>
+      </c>
+      <c r="EO26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="EP26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7875000000000001</v>
+      </c>
+      <c r="EQ26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0125000000000002</v>
+      </c>
+      <c r="ER26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="ES26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="ET26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1874999999999998</v>
+      </c>
+      <c r="EU26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="EV26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="EW26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2624999999999997</v>
+      </c>
+      <c r="EX26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96249999999999991</v>
+      </c>
+      <c r="EY26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="EZ26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="FA26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="FB26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="FC26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="FD26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1624999999999999</v>
+      </c>
+      <c r="FE26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.575</v>
+      </c>
+      <c r="FF26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3625000000000003</v>
+      </c>
+      <c r="FG26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4874999999999998</v>
+      </c>
+      <c r="FH26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="FI26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="FJ26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1124999999999998</v>
+      </c>
+      <c r="FK26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="FL26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1124999999999998</v>
+      </c>
+      <c r="FM26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2375000000000003</v>
+      </c>
+      <c r="FN26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="FO26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="FP26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="FQ26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="FR26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="FS26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="FT26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0625</v>
+      </c>
+      <c r="FU26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3249999999999997</v>
+      </c>
+      <c r="FV26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4375</v>
+      </c>
+      <c r="FW26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7874999999999999</v>
+      </c>
+      <c r="FX26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7375000000000003</v>
+      </c>
+      <c r="FY26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="FZ26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="GA26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="GB26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="GC26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.125</v>
+      </c>
+      <c r="GD26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="GE26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2625</v>
+      </c>
+      <c r="GF26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2124999999999999</v>
+      </c>
+      <c r="GG26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8749999999999998</v>
+      </c>
+      <c r="GH26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="GI26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5875000000000001</v>
+      </c>
+      <c r="GJ26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1750000000000003</v>
+      </c>
+      <c r="GK26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6374999999999997</v>
+      </c>
+      <c r="GL26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="GM26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="GN26" s="6">
+        <f t="shared" ref="GN26:IY26" si="3" xml:space="preserve"> (GN6-GN5) / 8</f>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="GO26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="GP26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.65</v>
+      </c>
+      <c r="GQ26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.5125000000000002</v>
+      </c>
+      <c r="GR26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="GS26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4375</v>
+      </c>
+      <c r="GT26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="GU26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1124999999999998</v>
+      </c>
+      <c r="GV26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.35</v>
+      </c>
+      <c r="GW26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.875</v>
+      </c>
+      <c r="GX26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="GY26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="GZ26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3874999999999997</v>
+      </c>
+      <c r="HA26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="HB26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2124999999999999</v>
+      </c>
+      <c r="HC26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.85</v>
+      </c>
+      <c r="HD26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.075</v>
+      </c>
+      <c r="HE26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4250000000000003</v>
+      </c>
+      <c r="HF26" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="HG26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9624999999999999</v>
+      </c>
+      <c r="HH26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5625</v>
+      </c>
+      <c r="HI26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4124999999999996</v>
+      </c>
+      <c r="HJ26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="HK26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="HL26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4375</v>
+      </c>
+      <c r="HM26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="HN26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="HO26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+      <c r="HP26" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="HQ26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6875000000000002</v>
+      </c>
+      <c r="HR26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9</v>
+      </c>
+      <c r="HS26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="HT26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3375000000000004</v>
+      </c>
+      <c r="HU26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="HV26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="HW26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8624999999999998</v>
+      </c>
+      <c r="HX26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.425</v>
+      </c>
+      <c r="HY26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="HZ26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6750000000000003</v>
+      </c>
+      <c r="IA26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2375000000000003</v>
+      </c>
+      <c r="IB26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="IC26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4375</v>
+      </c>
+      <c r="ID26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="IE26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="IF26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="IG26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="IH26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9624999999999999</v>
+      </c>
+      <c r="II26" s="6">
+        <f t="shared" si="3"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="IJ26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="IK26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6624999999999999</v>
+      </c>
+      <c r="IL26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2875000000000001</v>
+      </c>
+      <c r="IM26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.65</v>
+      </c>
+      <c r="IN26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IO26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3875000000000002</v>
+      </c>
+      <c r="IP26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="IQ26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0875000000000001</v>
+      </c>
+      <c r="IR26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="IS26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IT26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3875000000000002</v>
+      </c>
+      <c r="IU26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="IV26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="IW26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="IX26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4375</v>
+      </c>
+      <c r="IY26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="IZ26" s="6">
+        <f t="shared" ref="IZ26:LK26" si="4" xml:space="preserve"> (IZ6-IZ5) / 8</f>
+        <v>3.5375000000000001</v>
+      </c>
+      <c r="JA26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="JB26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1875000000000002</v>
+      </c>
+      <c r="JC26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="JD26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="JE26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7375</v>
+      </c>
+      <c r="JF26" s="6">
+        <f t="shared" si="4"/>
+        <v>-1.65</v>
+      </c>
+      <c r="JG26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="JH26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3374999999999999</v>
+      </c>
+      <c r="JI26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="JJ26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.6124999999999998</v>
+      </c>
+      <c r="JK26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.15</v>
+      </c>
+      <c r="JL26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.675</v>
+      </c>
+      <c r="JM26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4124999999999996</v>
+      </c>
+      <c r="JN26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="JO26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7124999999999999</v>
+      </c>
+      <c r="JP26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="JQ26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9874999999999998</v>
+      </c>
+      <c r="JR26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="JS26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="JT26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9375</v>
+      </c>
+      <c r="JU26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="JV26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8624999999999998</v>
+      </c>
+      <c r="JW26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9624999999999999</v>
+      </c>
+      <c r="JX26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="JY26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.675</v>
+      </c>
+      <c r="JZ26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.63749999999999973</v>
+      </c>
+      <c r="KA26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="KB26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="KC26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7374999999999998</v>
+      </c>
+      <c r="KD26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5625</v>
+      </c>
+      <c r="KE26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="KF26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5124999999999997</v>
+      </c>
+      <c r="KG26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="KH26" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="KI26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="KJ26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8875000000000002</v>
+      </c>
+      <c r="KK26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="KL26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="KM26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1625000000000001</v>
+      </c>
+      <c r="KN26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1124999999999998</v>
+      </c>
+      <c r="KO26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5749999999999997</v>
+      </c>
+      <c r="KP26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="KQ26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5875000000000004</v>
+      </c>
+      <c r="KR26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="KS26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7249999999999996</v>
+      </c>
+      <c r="KT26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7624999999999997</v>
+      </c>
+      <c r="KU26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6625000000000005</v>
+      </c>
+      <c r="KV26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5875000000000004</v>
+      </c>
+      <c r="KW26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4375</v>
+      </c>
+      <c r="KX26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0250000000000001</v>
+      </c>
+      <c r="KY26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9</v>
+      </c>
+      <c r="KZ26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1</v>
+      </c>
+      <c r="LA26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="LB26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="LC26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9374999999999998</v>
+      </c>
+      <c r="LD26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6875</v>
+      </c>
+      <c r="LE26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.6874999999999996</v>
+      </c>
+      <c r="LF26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="LG26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="LH26" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4124999999999996</v>
+      </c>
+      <c r="LI26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7750000000000001</v>
+      </c>
+      <c r="LJ26" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8875</v>
+      </c>
+      <c r="LK26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.15</v>
+      </c>
+      <c r="LL26" s="6">
+        <f t="shared" ref="LL26:NB26" si="5" xml:space="preserve"> (LL6-LL5) / 8</f>
+        <v>3.2750000000000004</v>
+      </c>
+      <c r="LM26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4874999999999998</v>
+      </c>
+      <c r="LN26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.4875000000000003</v>
+      </c>
+      <c r="LO26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8125</v>
+      </c>
+      <c r="LP26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3125</v>
+      </c>
+      <c r="LQ26" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98750000000000027</v>
+      </c>
+      <c r="LR26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1624999999999996</v>
+      </c>
+      <c r="LS26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LT26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1750000000000003</v>
+      </c>
+      <c r="LU26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="LV26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="LW26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="LX26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.65</v>
+      </c>
+      <c r="LY26" s="6">
+        <f t="shared" si="5"/>
+        <v>0.67499999999999982</v>
+      </c>
+      <c r="LZ26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1124999999999998</v>
+      </c>
+      <c r="MA26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="MB26" s="6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="MC26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="MD26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="ME26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="MF26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1624999999999996</v>
+      </c>
+      <c r="MG26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.125</v>
+      </c>
+      <c r="MH26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="MI26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1124999999999998</v>
+      </c>
+      <c r="MJ26" s="6">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="MK26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9375</v>
+      </c>
+      <c r="ML26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="MM26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3624999999999998</v>
+      </c>
+      <c r="MN26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.0374999999999996</v>
+      </c>
+      <c r="MO26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6624999999999996</v>
+      </c>
+      <c r="MP26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="MQ26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="MR26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="MS26" s="6">
+        <f t="shared" si="5"/>
+        <v>0.48750000000000027</v>
+      </c>
+      <c r="MT26" s="6">
+        <f t="shared" si="5"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="MU26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2625000000000002</v>
+      </c>
+      <c r="MV26" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2875000000000001</v>
+      </c>
+      <c r="MW26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="MX26" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2750000000000004</v>
+      </c>
+      <c r="MY26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2375000000000003</v>
+      </c>
+      <c r="MZ26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="NA26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="NB26" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2124999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:366" x14ac:dyDescent="0.45">
+      <c r="B30" s="6">
+        <f xml:space="preserve"> MAX(B26:NB26)</f>
+        <v>3.6874999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:366" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>B30* 1.5</f>
+        <v>5.5312499999999991</v>
       </c>
     </row>
   </sheetData>
